--- a/Compras.xlsx
+++ b/Compras.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\PQ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839FE621-543D-4F41-995F-D448C0C79A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-528" windowWidth="23064" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,11 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,39 +54,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,71 +87,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="Currency 10" xfId="15" xr:uid="{9D454DCA-90ED-43F3-AE8D-32C8F4A9DA47}"/>
-    <cellStyle name="Currency 11" xfId="16" xr:uid="{9CEC3DF8-5693-4DCE-9E7B-AA560068460C}"/>
-    <cellStyle name="Currency 12" xfId="17" xr:uid="{64FC41F2-4B6C-41DE-AB7C-3D4FA415F6FE}"/>
-    <cellStyle name="Currency 13" xfId="6" xr:uid="{5C95E631-0C9E-49D3-B1DD-4138CB683EF9}"/>
-    <cellStyle name="Currency 2" xfId="2" xr:uid="{A43A4A72-D142-4D73-862D-78D0B926CD08}"/>
-    <cellStyle name="Currency 2 2" xfId="7" xr:uid="{3C4B63D7-9D85-47D4-A1C7-70B4EC68AE17}"/>
-    <cellStyle name="Currency 3" xfId="1" xr:uid="{F04E3030-D351-43D6-930F-BF1DEB548381}"/>
-    <cellStyle name="Currency 3 2" xfId="8" xr:uid="{C7CF3951-E928-4888-9575-E118E455F87D}"/>
-    <cellStyle name="Currency 4" xfId="9" xr:uid="{84AF1225-3633-49C0-A82D-026835D6773F}"/>
-    <cellStyle name="Currency 5" xfId="10" xr:uid="{52721D64-6C4D-4AC5-9449-A969CD38C1CF}"/>
-    <cellStyle name="Currency 6" xfId="11" xr:uid="{E23BE557-0C40-4F55-B6E2-65967B302FBD}"/>
-    <cellStyle name="Currency 7" xfId="12" xr:uid="{43844C89-F996-4D0D-BFAF-B11596C49286}"/>
-    <cellStyle name="Currency 8" xfId="13" xr:uid="{0DAE1039-53D7-40FC-9A2F-A21D7A60AA15}"/>
-    <cellStyle name="Currency 9" xfId="14" xr:uid="{34D48D9C-66D5-4FD4-96F8-AD941D327040}"/>
-    <cellStyle name="Moeda 2" xfId="3" xr:uid="{7D896EBF-AEE8-4A1D-9456-D09A7AEB3FAE}"/>
-    <cellStyle name="Moeda 2 2" xfId="5" xr:uid="{AD7858C0-292E-4273-B1A5-2972C7446E7D}"/>
-    <cellStyle name="Moeda 3" xfId="4" xr:uid="{D2A25634-0F53-4DC3-9A66-D66EBA3DC8DB}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,19 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,229 +403,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>286092</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>305888</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>317310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>358778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
+      <c r="B5">
+        <v>363251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
